--- a/notification_configs/09_late_submission_alerts.xlsx
+++ b/notification_configs/09_late_submission_alerts.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LateSubmissionAlerts" displayName="LateSubmissionAlerts" ref="A1:W9" headerRowCount="1">
-  <autoFilter ref="A1:W9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LateSubmissionAlerts" displayName="LateSubmissionAlerts" ref="A1:W6" headerRowCount="1">
+  <autoFilter ref="A1:W6"/>
   <tableColumns count="23">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,13 +453,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
@@ -467,7 +467,7 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="50" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="21" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
@@ -598,7 +598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LATE_EMP001_20250914</t>
+          <t>LATE_EMP001_20250918</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sarah.johnson@attendo.com</t>
+          <t>alice.manager@attendo.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>11:23:42</t>
+          <t>22:05:12</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LATE_EMP002_20250914</t>
+          <t>LATE_EMP002_20250918</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sarah.johnson@attendo.com</t>
+          <t>alice.manager@attendo.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>11:23:42</t>
+          <t>22:05:12</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -811,14 +811,14 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LATE_EMP003_20250914</t>
+          <t>LATE_EMP003_20250918</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Michael Chen</t>
+          <t>Bob Chen</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>michael.chen@attendo.com</t>
+          <t>bob.manager@attendo.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>11:23:42</t>
+          <t>22:05:12</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -921,14 +921,14 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LATE_EMP004_20250914</t>
+          <t>LATE_EMP004_20250918</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>11:23:42</t>
+          <t>22:05:12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATE_EMP005_20250914</t>
+          <t>LATE_EMP005_20250918</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>sarah.johnson@attendo.com</t>
+          <t>alice.manager@attendo.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>11:23:42</t>
+          <t>22:05:12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1141,337 +1141,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LATE_MTK34711_20250914</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>chandresh.kerkar21@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MTK34711</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MTK34710</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Chandresh</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>chandresh.kerkar1@gmail.com</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>LATE_SUBMISSION</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>alerts_mtk34710</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS,SMS</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>11:23:42</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LATE_VND001_20250914</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>john.doe@vendor.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VND001</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sarah Johnson</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>sarah.johnson@attendo.com</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>LATE_SUBMISSION</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>24</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>🚨 URGENT: Daily attendance submission missing - John Doe</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>alerts_m001</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS,SMS</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>11:23:42</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LATE_VND002_20250914</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>jane.smith@vendor.com</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jane Smith</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VND002</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Michael Chen</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>michael.chen@attendo.com</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>LATE_SUBMISSION</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>24</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Jane Smith</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>alerts_m002</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS,SMS</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>11:23:42</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>

--- a/notification_configs/09_late_submission_alerts.xlsx
+++ b/notification_configs/09_late_submission_alerts.xlsx
@@ -453,9 +453,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -598,7 +598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LATE_EMP001_20250918</t>
+          <t>LATE_EMP001_20250919</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>22:05:12</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LATE_EMP002_20250918</t>
+          <t>LATE_EMP002_20250919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>22:05:12</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -811,44 +811,44 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LATE_EMP003_20250918</t>
+          <t>LATE_EMP004_20250919</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mike.vendor@company.com</t>
+          <t>sarah.vendor@company.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mike Rodriguez</t>
+          <t>Sarah Parker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EMP003</t>
+          <t>EMP004</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bob Chen</t>
+          <t>Carol Davis</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>bob.manager@attendo.com</t>
+          <t>carol.manager@attendo.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Mike Rodriguez</t>
+          <t>🚨 URGENT: Daily attendance submission missing - Sarah Parker</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>alerts_m002</t>
+          <t>alerts_m003</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>22:05:12</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -921,44 +921,44 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LATE_EMP004_20250918</t>
+          <t>LATE_EMP005_20250919</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sarah.vendor@company.com</t>
+          <t>david.vendor@company.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sarah Parker</t>
+          <t>David Kim</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EMP004</t>
+          <t>EMP005</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Carol Davis</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>carol.manager@attendo.com</t>
+          <t>alice.manager@attendo.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Sarah Parker</t>
+          <t>🚨 URGENT: Daily attendance submission missing - David Kim</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>alerts_m003</t>
+          <t>alerts_m001</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>22:05:12</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1031,29 +1031,29 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATE_EMP005_20250918</t>
+          <t>LATE_MTK34711_20250919</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>david.vendor@company.com</t>
+          <t>chandresh.kerkar1@gmail.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>David Kim</t>
+          <t>Chandresh Kerkar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EMP005</t>
+          <t>MTK34711</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>🚨 URGENT: Daily attendance submission missing - David Kim</t>
+          <t>🚨 URGENT: Daily attendance submission missing - Chandresh Kerkar</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>22:05:12</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:08:23</t>
         </is>
       </c>
     </row>

--- a/notification_configs/09_late_submission_alerts.xlsx
+++ b/notification_configs/09_late_submission_alerts.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LateSubmissionAlerts" displayName="LateSubmissionAlerts" ref="A1:W6" headerRowCount="1">
-  <autoFilter ref="A1:W6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LateSubmissionAlerts" displayName="LateSubmissionAlerts" ref="A1:W5" headerRowCount="1">
+  <autoFilter ref="A1:W5"/>
   <tableColumns count="23">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,9 +453,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>00:08:23</t>
+          <t>00:47:04</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
+          <t>2025-09-19 00:47:04</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>00:08:23</t>
+          <t>00:47:04</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
+          <t>2025-09-19 00:47:04</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>00:08:23</t>
+          <t>00:47:04</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
+          <t>2025-09-19 00:47:04</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>00:08:23</t>
+          <t>00:47:04</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1031,117 +1031,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2025-09-19 00:08:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LATE_MTK34711_20250919</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>chandresh.kerkar1@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MTK34711</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alice Johnson</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>alice.manager@attendo.com</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LATE_SUBMISSION</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>24</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Chandresh Kerkar</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>alerts_m001</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS,SMS</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>00:08:23</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:08:23</t>
+          <t>2025-09-19 00:47:04</t>
         </is>
       </c>
     </row>

--- a/notification_configs/09_late_submission_alerts.xlsx
+++ b/notification_configs/09_late_submission_alerts.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LateSubmissionAlerts" displayName="LateSubmissionAlerts" ref="A1:W5" headerRowCount="1">
-  <autoFilter ref="A1:W5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LateSubmissionAlerts" displayName="LateSubmissionAlerts" ref="A1:W4" headerRowCount="1">
+  <autoFilter ref="A1:W4"/>
   <tableColumns count="23">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,22 +598,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LATE_EMP001_20250919</t>
+          <t>LATE_EMP002_20250919</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>john.vendor@company.com</t>
+          <t>jane.vendor@company.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Wilson</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EMP001</t>
+          <t>EMP002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>🚨 URGENT: Daily attendance submission missing - John Smith</t>
+          <t>🚨 URGENT: Daily attendance submission missing - Jane Wilson</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>00:47:04</t>
+          <t>01:15:03</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -701,44 +701,44 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
+          <t>2025-09-19 01:15:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LATE_EMP002_20250919</t>
+          <t>LATE_EMP004_20250919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jane.vendor@company.com</t>
+          <t>sarah.vendor@company.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jane Wilson</t>
+          <t>Sarah Parker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EMP002</t>
+          <t>EMP004</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M001</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Carol Davis</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>alice.manager@attendo.com</t>
+          <t>carol.manager@attendo.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Jane Wilson</t>
+          <t>🚨 URGENT: Daily attendance submission missing - Sarah Parker</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>alerts_m001</t>
+          <t>alerts_m003</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>00:47:04</t>
+          <t>01:15:03</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -811,44 +811,44 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
+          <t>2025-09-19 01:15:03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LATE_EMP004_20250919</t>
+          <t>LATE_EMP005_20250919</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sarah.vendor@company.com</t>
+          <t>david.vendor@company.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sarah Parker</t>
+          <t>David Kim</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EMP004</t>
+          <t>EMP005</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Carol Davis</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>carol.manager@attendo.com</t>
+          <t>alice.manager@attendo.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>🚨 URGENT: Daily attendance submission missing - Sarah Parker</t>
+          <t>🚨 URGENT: Daily attendance submission missing - David Kim</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>alerts_m003</t>
+          <t>alerts_m001</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>00:47:04</t>
+          <t>01:15:03</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -921,117 +921,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LATE_EMP005_20250919</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>david.vendor@company.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>David Kim</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EMP005</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alice Johnson</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>alice.manager@attendo.com</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>LATE_SUBMISSION</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>24</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>🚨 URGENT: Daily attendance submission missing - David Kim</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>alerts_m001</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS,SMS</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>00:47:04</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:47:04</t>
+          <t>2025-09-19 01:15:03</t>
         </is>
       </c>
     </row>

--- a/notification_configs/09_late_submission_alerts.xlsx
+++ b/notification_configs/09_late_submission_alerts.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01:15:03</t>
+          <t>01:30:36</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01:15:03</t>
+          <t>01:30:36</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01:15:03</t>
+          <t>01:30:36</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
         </is>
       </c>
     </row>
